--- a/UMAWorldConf/配置/多语言表.xlsx
+++ b/UMAWorldConf/配置/多语言表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="345">
   <si>
     <t>simplified Chinese</t>
   </si>
@@ -1163,6 +1163,37 @@
   </si>
   <si>
     <t>英文|支持空字符串</t>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please Input Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireBall</t>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1583,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1638,18 +1669,18 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5">
-      <c r="A4">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="14.5">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
+      <c r="B4" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
+        <v>337</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.5">
@@ -1657,13 +1688,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5">
@@ -1671,13 +1702,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
@@ -1685,13 +1716,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
@@ -1699,13 +1730,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
@@ -1713,13 +1744,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.5">
@@ -1727,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.5">
@@ -1741,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.5">
@@ -1755,13 +1786,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.5">
@@ -1769,13 +1800,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.5">
@@ -1783,13 +1814,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.5">
@@ -1797,13 +1828,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.5">
@@ -1811,13 +1842,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.5">
@@ -1825,13 +1856,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.5">
@@ -1839,13 +1870,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.5">
@@ -1853,13 +1884,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.5">
@@ -1867,13 +1898,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.5">
@@ -1881,13 +1912,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.5">
@@ -1895,13 +1926,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.5">
@@ -1909,13 +1940,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.5">
@@ -1923,13 +1954,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.5">
@@ -1937,13 +1968,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.5">
@@ -1951,13 +1982,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.5">
@@ -1965,13 +1996,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5">
@@ -1979,13 +2010,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.5">
@@ -1993,13 +2024,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.5">
@@ -2007,13 +2038,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.5">
@@ -2021,10 +2052,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>57</v>
@@ -2035,13 +2066,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.5">
@@ -2049,13 +2080,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.5">
@@ -2063,13 +2094,13 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.5">
@@ -2077,13 +2108,13 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.5">
@@ -2091,13 +2122,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.5">
@@ -2105,13 +2136,13 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.5">
@@ -2119,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.5">
@@ -2133,13 +2164,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.5">
@@ -2147,13 +2178,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.5">
@@ -2161,13 +2192,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.5">
@@ -2175,13 +2206,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.5">
@@ -2189,13 +2220,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.5">
@@ -2203,13 +2234,13 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.5">
@@ -2217,13 +2248,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.5">
@@ -2231,13 +2262,13 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.5">
@@ -2245,13 +2276,13 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.5">
@@ -2259,13 +2290,13 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.5">
@@ -2273,13 +2304,13 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.5">
@@ -2287,13 +2318,13 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.5">
@@ -2301,13 +2332,13 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.5">
@@ -2315,13 +2346,13 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.5">
@@ -2329,13 +2360,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.5">
@@ -2343,13 +2374,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.5">
@@ -2357,13 +2388,13 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.5">
@@ -2371,10 +2402,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>107</v>
@@ -2385,13 +2416,13 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.5">
@@ -2399,13 +2430,13 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.5">
@@ -2413,13 +2444,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.5">
@@ -2427,13 +2458,13 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.5">
@@ -2441,13 +2472,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.5">
@@ -2455,13 +2486,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.5">
@@ -2469,13 +2500,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.5">
@@ -2483,13 +2514,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.5">
@@ -2497,13 +2528,13 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.5">
@@ -2511,13 +2542,13 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.5">
@@ -2525,13 +2556,13 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.5">
@@ -2539,13 +2570,13 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.5">
@@ -2553,13 +2584,13 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.5">
@@ -2567,13 +2598,13 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.5">
@@ -2581,13 +2612,13 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.5">
@@ -2595,13 +2626,13 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.5">
@@ -2609,13 +2640,13 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.5">
@@ -2623,13 +2654,13 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.5">
@@ -2637,13 +2668,13 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.5">
@@ -2651,13 +2682,13 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.5">
@@ -2665,13 +2696,13 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.5">
@@ -2679,13 +2710,13 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.5">
@@ -2693,13 +2724,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.5">
@@ -2707,13 +2738,13 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.5">
@@ -2721,13 +2752,13 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.5">
@@ -2735,13 +2766,13 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.5">
@@ -2749,13 +2780,13 @@
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.5">
@@ -2763,13 +2794,13 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.5">
@@ -2777,13 +2808,13 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.5">
@@ -2791,13 +2822,13 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.5">
@@ -2805,13 +2836,13 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.5">
@@ -2819,13 +2850,13 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.5">
@@ -2833,13 +2864,13 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.5">
@@ -2847,13 +2878,13 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.5">
@@ -2861,13 +2892,13 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.5">
@@ -2875,13 +2906,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.5">
@@ -2889,13 +2920,13 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.5">
@@ -2903,13 +2934,13 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14.5">
@@ -2917,13 +2948,13 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="14.5">
@@ -2931,13 +2962,13 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.5">
@@ -2945,13 +2976,13 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.5">
@@ -2959,13 +2990,13 @@
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.5">
@@ -2973,13 +3004,13 @@
         <v>96</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.5">
@@ -2987,13 +3018,13 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.5">
@@ -3001,13 +3032,13 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.5">
@@ -3015,13 +3046,13 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.5">
@@ -3029,13 +3060,13 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.5">
@@ -3043,13 +3074,13 @@
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.5">
@@ -3057,13 +3088,13 @@
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.5">
@@ -3071,13 +3102,13 @@
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.5">
@@ -3085,13 +3116,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.5">
@@ -3099,13 +3130,13 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.5">
@@ -3113,13 +3144,13 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.5">
@@ -3127,13 +3158,13 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.5">
@@ -3141,13 +3172,13 @@
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.5">
@@ -3155,13 +3186,13 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.5">
@@ -3169,13 +3200,13 @@
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.5">
@@ -3183,13 +3214,13 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.5">
@@ -3197,13 +3228,13 @@
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.5">
@@ -3211,13 +3242,13 @@
         <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.5">
@@ -3225,13 +3256,13 @@
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.5">
@@ -3239,13 +3270,13 @@
         <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.5">
@@ -3253,13 +3284,13 @@
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.5">
@@ -3267,13 +3298,13 @@
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.5">
@@ -3281,13 +3312,13 @@
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.5">
@@ -3295,13 +3326,13 @@
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.5">
@@ -3309,13 +3340,13 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.5">
@@ -3323,13 +3354,13 @@
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.5">
@@ -3337,13 +3368,13 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.5">
@@ -3351,13 +3382,13 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.5">
@@ -3365,13 +3396,13 @@
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.5">
@@ -3379,13 +3410,13 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.5">
@@ -3393,13 +3424,13 @@
         <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.5">
@@ -3407,13 +3438,13 @@
         <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.5">
@@ -3421,13 +3452,13 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.5">
@@ -3435,13 +3466,13 @@
         <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.5">
@@ -3449,13 +3480,13 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.5">
@@ -3463,13 +3494,13 @@
         <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.5">
@@ -3477,13 +3508,13 @@
         <v>132</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.5">
@@ -3491,13 +3522,13 @@
         <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.5">
@@ -3505,13 +3536,13 @@
         <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.5">
@@ -3519,13 +3550,13 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.5">
@@ -3533,13 +3564,13 @@
         <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.5">
@@ -3547,13 +3578,13 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.5">
@@ -3561,13 +3592,13 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.5">
@@ -3575,13 +3606,13 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.5">
@@ -3589,13 +3620,13 @@
         <v>140</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.5">
@@ -3603,13 +3634,13 @@
         <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.5">
@@ -3617,13 +3648,13 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.5">
@@ -3631,13 +3662,13 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.5">
@@ -3645,13 +3676,13 @@
         <v>144</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.5">
@@ -3659,13 +3690,13 @@
         <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.5">
@@ -3673,13 +3704,13 @@
         <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.5">
@@ -3687,13 +3718,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D150" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.5">
@@ -3701,13 +3732,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D151" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.5">
@@ -3715,13 +3746,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D152" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.5">
@@ -3729,13 +3760,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.5">
@@ -3743,13 +3774,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="D154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.5">
@@ -3757,13 +3788,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D155" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.5">
@@ -3771,13 +3802,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.5">
@@ -3785,13 +3816,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="D157" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.5">
@@ -3799,13 +3830,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="D158" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.5">
@@ -3813,13 +3844,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="D159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.5">
@@ -3827,13 +3858,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.5">
@@ -3841,13 +3872,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.5">
@@ -3855,13 +3886,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.5">
@@ -3869,13 +3900,55 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D163" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="14.5">
+      <c r="A164" s="2">
+        <v>161</v>
+      </c>
+      <c r="B164" t="s">
         <v>326</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="2" customFormat="1" ht="14.5">
+      <c r="A165" s="2">
+        <v>162</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="14.5">
+      <c r="A166" s="2">
+        <v>163</v>
+      </c>
+      <c r="B166" t="s">
+        <v>343</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/UMAWorldConf/配置/多语言表.xlsx
+++ b/UMAWorldConf/配置/多语言表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="349">
   <si>
     <t>simplified Chinese</t>
   </si>
@@ -1193,6 +1193,22 @@
   </si>
   <si>
     <t>火球术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1614,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3949,6 +3965,34 @@
       </c>
       <c r="D166" s="2" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="14.5">
+      <c r="A167" s="2">
+        <v>164</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="14.5">
+      <c r="A168" s="2">
+        <v>165</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/UMAWorldConf/配置/多语言表.xlsx
+++ b/UMAWorldConf/配置/多语言表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="532">
   <si>
     <t>simplified Chinese</t>
   </si>
@@ -1211,12 +1211,724 @@
     <t>内力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>drizzle</t>
+  </si>
+  <si>
+    <t>downpour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storm</t>
+  </si>
+  <si>
+    <t>fineSnow</t>
+  </si>
+  <si>
+    <t>majorSnow</t>
+  </si>
+  <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>sandstorm</t>
+  </si>
+  <si>
+    <t>haze</t>
+  </si>
+  <si>
+    <t>晴</t>
+  </si>
+  <si>
+    <t>多云</t>
+  </si>
+  <si>
+    <t>小雨</t>
+  </si>
+  <si>
+    <t>大雨</t>
+  </si>
+  <si>
+    <t>暴雨</t>
+  </si>
+  <si>
+    <t>大雪</t>
+  </si>
+  <si>
+    <t>暴雪</t>
+  </si>
+  <si>
+    <t>沙暴</t>
+  </si>
+  <si>
+    <t>雾霾</t>
+  </si>
+  <si>
+    <t>小雪</t>
+  </si>
+  <si>
+    <t>fine snow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>major snow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>夜晚</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>showDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>showTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaotic {1} {2},{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}:{1}</t>
+  </si>
+  <si>
+    <r>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+  </si>
+  <si>
+    <t>sunny</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Jan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <r>
+      <t>混沌历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair Accessory</t>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>health_restore</t>
+  </si>
+  <si>
+    <t>magic_restore</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>move_speed</t>
+  </si>
+  <si>
+    <t>resist_fire</t>
+  </si>
+  <si>
+    <t>resist_forzen</t>
+  </si>
+  <si>
+    <t>resist_lighting</t>
+  </si>
+  <si>
+    <t>resist_poison</t>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health restore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic restore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>move speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist forzen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist lighting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>resist poison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maohao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Race</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigLevel1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigLevel2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigLevel3</t>
+  </si>
+  <si>
+    <t>BigLevel4</t>
+  </si>
+  <si>
+    <t>BigLevel5</t>
+  </si>
+  <si>
+    <t>SmallLevel1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallLevel2</t>
+  </si>
+  <si>
+    <t>SmallLevel3</t>
+  </si>
+  <si>
+    <t>SmallLevel5</t>
+  </si>
+  <si>
+    <t>初期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巅峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallLevel4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圆满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练气期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结丹期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丹期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元婴期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合道期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化神期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞虚期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乘期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡劫期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigLevel6</t>
+  </si>
+  <si>
+    <t>BigLevel7</t>
+  </si>
+  <si>
+    <t>BigLevel8</t>
+  </si>
+  <si>
+    <t>BigLevel9</t>
+  </si>
+  <si>
+    <t>BigLevel10</t>
+  </si>
+  <si>
+    <t>chuqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>houqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dianfeng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianqi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiedan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jindan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuanying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huashen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongxu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dacheng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dujie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,6 +1983,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1311,7 +2029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1333,6 +2051,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差 2" xfId="3"/>
@@ -1343,6 +2062,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Administrator\Documents\Tencent Files\996776472\Image\Group2\A~\(_\A~(_~E6]$X4)){6KU3_UC%8.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13423900" y="38538150"/>
+          <a:ext cx="6819900" cy="7677150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,17 +2394,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1731,8 +2495,8 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -3715,18 +4479,18 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.5">
+    <row r="149" spans="1:4" s="2" customFormat="1" ht="14.5">
       <c r="A149" s="2">
         <v>146</v>
       </c>
-      <c r="B149" t="s">
-        <v>293</v>
+      <c r="B149" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D149" t="s">
-        <v>293</v>
+        <v>433</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.5">
@@ -3734,13 +4498,13 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.5">
@@ -3748,13 +4512,13 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.5">
@@ -3762,13 +4526,13 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.5">
@@ -3776,13 +4540,13 @@
         <v>150</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.5">
@@ -3790,13 +4554,13 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="D154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.5">
@@ -3804,13 +4568,13 @@
         <v>152</v>
       </c>
       <c r="B155" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.5">
@@ -3818,13 +4582,13 @@
         <v>153</v>
       </c>
       <c r="B156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.5">
@@ -3832,13 +4596,13 @@
         <v>154</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="D157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.5">
@@ -3846,13 +4610,13 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.5">
@@ -3860,13 +4624,13 @@
         <v>156</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>48</v>
+        <v>314</v>
       </c>
       <c r="D159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.5">
@@ -3874,13 +4638,13 @@
         <v>157</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="D160" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.5">
@@ -3888,13 +4652,13 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.5">
@@ -3902,13 +4666,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.5">
@@ -3916,13 +4680,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.5">
@@ -3930,13 +4694,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="2" customFormat="1" ht="14.5">
@@ -3944,13 +4708,13 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.5">
@@ -3958,47 +4722,1202 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="14.5">
+        <v>327</v>
+      </c>
+      <c r="D166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="2" customFormat="1" ht="14.5">
       <c r="A167" s="2">
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.5">
       <c r="A168" s="2">
         <v>165</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="14.5">
+      <c r="A169" s="2">
+        <v>166</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14.5">
+      <c r="A170" s="2">
+        <v>167</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>346</v>
       </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
+        <v>168</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
+        <v>171</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
+        <v>173</v>
+      </c>
+      <c r="B176" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="14.5">
+      <c r="A177" s="2">
+        <v>174</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="14.5">
+      <c r="A178" s="2">
+        <v>175</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="14.5">
+      <c r="A179" s="2">
+        <v>176</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="14.5">
+      <c r="A180" s="2">
+        <v>177</v>
+      </c>
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
+        <v>178</v>
+      </c>
+      <c r="B181" t="s">
+        <v>374</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D181" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D182" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>376</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D183" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="14.5">
+      <c r="A184" s="2">
+        <v>181</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="14.5">
+      <c r="A185" s="2">
+        <v>182</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C185" t="s">
+        <v>380</v>
+      </c>
+      <c r="D185" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="14.5">
+      <c r="A186" s="2">
+        <v>183</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="14.5">
+      <c r="A187" s="2">
+        <v>184</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D187" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="14.5">
+      <c r="A188" s="2">
+        <v>185</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="14.5">
+      <c r="A189" s="2">
+        <v>186</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D189" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="14.5">
+      <c r="A190" s="2">
+        <v>187</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D190" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="14.5">
+      <c r="A191" s="2">
+        <v>188</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D191" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="14.5">
+      <c r="A192" s="2">
+        <v>189</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D192" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="14.5">
+      <c r="A193" s="2">
+        <v>190</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D193" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="14.5">
+      <c r="A194" s="2">
+        <v>191</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D194" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="14.5">
+      <c r="A195" s="2">
+        <v>192</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D195" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="14.5">
+      <c r="A196" s="2">
+        <v>193</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D196" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="14.5">
+      <c r="A197" s="2">
+        <v>194</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D197" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
+        <v>195</v>
+      </c>
+      <c r="B198" t="s">
+        <v>406</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D198" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
+        <v>196</v>
+      </c>
+      <c r="B199" t="s">
+        <v>407</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D199" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
+        <v>197</v>
+      </c>
+      <c r="B200" t="s">
+        <v>408</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D200" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="14.5">
+      <c r="A201" s="2">
+        <v>198</v>
+      </c>
+      <c r="B201" t="s">
+        <v>409</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D201" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="14.5">
+      <c r="A202" s="2">
+        <v>199</v>
+      </c>
+      <c r="B202" t="s">
+        <v>410</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
+        <v>411</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D203" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
+        <v>201</v>
+      </c>
+      <c r="B204" t="s">
+        <v>412</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D204" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
+        <v>202</v>
+      </c>
+      <c r="B205" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D205" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
+        <v>203</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D206" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
+        <v>204</v>
+      </c>
+      <c r="B207" t="s">
+        <v>415</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D207" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
+        <v>205</v>
+      </c>
+      <c r="B208" t="s">
+        <v>416</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D208" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="14.5">
+      <c r="A209" s="2">
+        <v>206</v>
+      </c>
+      <c r="B209" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D209" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="14.5">
+      <c r="A210" s="2">
+        <v>207</v>
+      </c>
+      <c r="B210" t="s">
+        <v>449</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="14.5">
+      <c r="A211" s="2">
+        <v>208</v>
+      </c>
+      <c r="B211" t="s">
+        <v>450</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="14.5">
+      <c r="A212" s="2">
+        <v>209</v>
+      </c>
+      <c r="B212" t="s">
+        <v>451</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="14.5">
+      <c r="A213" s="2">
+        <v>210</v>
+      </c>
+      <c r="B213" t="s">
+        <v>452</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="14.5">
+      <c r="A214" s="2">
+        <v>211</v>
+      </c>
+      <c r="B214" t="s">
+        <v>453</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="14.5">
+      <c r="A215" s="2">
+        <v>212</v>
+      </c>
+      <c r="B215" t="s">
+        <v>454</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="14.5">
+      <c r="A216" s="2">
+        <v>213</v>
+      </c>
+      <c r="B216" t="s">
+        <v>455</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="14.5">
+      <c r="A217" s="2">
+        <v>214</v>
+      </c>
+      <c r="B217" t="s">
+        <v>456</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="14.5">
+      <c r="A218" s="2">
+        <v>215</v>
+      </c>
+      <c r="B218" t="s">
+        <v>457</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="14.5">
+      <c r="A219" s="2">
+        <v>216</v>
+      </c>
+      <c r="B219" t="s">
+        <v>458</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="14.5">
+      <c r="A220" s="2">
+        <v>217</v>
+      </c>
+      <c r="B220" t="s">
+        <v>459</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="14.5">
+      <c r="A221" s="2">
+        <v>218</v>
+      </c>
+      <c r="B221" t="s">
+        <v>460</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="14.5">
+      <c r="A222" s="2">
+        <v>219</v>
+      </c>
+      <c r="B222" t="s">
+        <v>461</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="14.5">
+      <c r="A223" s="2">
+        <v>220</v>
+      </c>
+      <c r="B223" t="s">
+        <v>462</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="14.5">
+      <c r="A224" s="2">
+        <v>221</v>
+      </c>
+      <c r="B224" t="s">
+        <v>463</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="14.5">
+      <c r="A225" s="2">
+        <v>222</v>
+      </c>
+      <c r="B225" t="s">
+        <v>464</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="14.5">
+      <c r="A226" s="2">
+        <v>223</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="14.5">
+      <c r="A227" s="2">
+        <v>224</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="14.5">
+      <c r="A228" s="2">
+        <v>225</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="14.5">
+      <c r="A229" s="2">
+        <v>226</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" s="2" customFormat="1" ht="14.5">
+      <c r="A230" s="2">
+        <v>227</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="14.5">
+      <c r="A231" s="2">
+        <v>228</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="14.5">
+      <c r="A232" s="2">
+        <v>229</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" ht="14.5">
+      <c r="A233" s="2">
+        <v>230</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.5">
+      <c r="A234" s="2">
+        <v>231</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" ht="14.5">
+      <c r="A235" s="2">
+        <v>232</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" ht="14.5">
+      <c r="A236" s="2">
+        <v>233</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="14.5">
+      <c r="A237" s="2">
+        <v>234</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="14.5">
+      <c r="A238" s="2">
+        <v>235</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="14.5">
+      <c r="A239" s="2">
+        <v>236</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="14.5">
+      <c r="A240" s="2">
+        <v>237</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="14.5">
+      <c r="A241" s="2">
+        <v>238</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="14.5">
+      <c r="A242" s="2">
+        <v>239</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="14.5">
+      <c r="A243" s="2">
+        <v>240</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="14.5">
+      <c r="A244" s="2">
+        <v>241</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="14.5">
+      <c r="A245" s="2">
+        <v>242</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
